--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8430" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>货号</t>
   </si>
   <si>
-    <t>供销内部编码</t>
+    <t>商品编号</t>
   </si>
   <si>
     <t>商家编码</t>
@@ -266,9 +266,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -301,6 +301,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -309,7 +354,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +397,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -345,15 +422,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,91 +451,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -479,6 +479,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,175 +617,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +688,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,16 +728,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,45 +759,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -785,153 +767,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,8 +1290,8 @@
   <sheetPr/>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1397,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8430"/>
+    <workbookView windowWidth="19095" windowHeight="8430" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>订单号</t>
   </si>
@@ -242,10 +242,13 @@
     <t>有赞</t>
   </si>
   <si>
-    <t>B2B线下</t>
+    <t>线下</t>
   </si>
   <si>
     <t>展厅</t>
+  </si>
+  <si>
+    <t>大客户</t>
   </si>
   <si>
     <t>支付方式ID</t>
@@ -265,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -301,6 +304,71 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -309,14 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -325,45 +385,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,17 +431,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,51 +448,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -479,6 +482,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,12 +536,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,6 +596,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,30 +638,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,24 +657,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,41 +706,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +726,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,11 +774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,152 +793,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +946,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,7 +1296,7 @@
   <sheetPr/>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1309,80 +1315,80 @@
     <col min="25" max="25" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1414,395 +1420,395 @@
     <col min="25" max="25" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:22">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:22">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>1001</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:22">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:22">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>1002</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:22">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="6" customFormat="1" spans="1:22">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>1003</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:22">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="6" customFormat="1" spans="1:22">
+      <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1004</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:22">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:22">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>1005</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1859,10 +1865,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1891,13 +1897,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1945,6 +1951,14 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1970,10 +1984,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1997,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2005,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8430" activeTab="3"/>
+    <workbookView windowWidth="19095" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>订单号</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>货号</t>
-  </si>
-  <si>
-    <t>商品编号</t>
   </si>
   <si>
     <t>商家编码</t>
@@ -268,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -307,12 +304,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,21 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,32 +399,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,31 +445,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -482,187 +479,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +688,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -706,15 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -726,30 +723,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,157 +761,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,9 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,90 +1300,87 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="82" customWidth="1"/>
-    <col min="14" max="15" width="9.875" customWidth="1"/>
-    <col min="16" max="16" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="9.875" customWidth="1"/>
-    <col min="23" max="24" width="12.25" customWidth="1"/>
-    <col min="25" max="25" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="82" customWidth="1"/>
+    <col min="13" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="9.875" customWidth="1"/>
+    <col min="22" max="23" width="12.25" customWidth="1"/>
+    <col min="24" max="24" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:24">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1401,450 +1392,430 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
-    <col min="16" max="16" width="31.5" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="23" max="24" width="12.25" customWidth="1"/>
-    <col min="25" max="25" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="51.5" customWidth="1"/>
+    <col min="15" max="15" width="31.5" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="22" max="23" width="12.25" customWidth="1"/>
+    <col min="24" max="24" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:24">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:21">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:22">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6">
-        <v>1001</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:21">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:21">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="U4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:21">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:21">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:22">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1002</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:22">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1003</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:22">
-      <c r="A5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1004</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:22">
-      <c r="A6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1005</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="6" t="s">
+      <c r="U6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:1">
+      <c r="A12" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1865,11 +1836,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1877,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1885,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1870,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1907,10 +1878,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1918,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1926,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1934,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1942,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1950,15 +1921,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1984,10 +1955,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1995,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2003,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2011,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2019,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>订单号</t>
   </si>
@@ -92,6 +92,9 @@
     <t>订购人身份证</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>GX0180525112325897005</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
   </si>
   <si>
     <t>银联</t>
+  </si>
+  <si>
+    <t>转账</t>
   </si>
   <si>
     <t>其他</t>
@@ -265,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -308,6 +314,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -319,6 +341,52 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,46 +399,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,35 +422,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,9 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,21 +457,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -479,6 +485,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,175 +509,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +694,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -698,16 +719,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,31 +769,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,148 +796,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1309,7 +1315,7 @@
     <col min="24" max="24" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:24">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1381,6 +1387,9 @@
       </c>
       <c r="X1" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1485,337 +1494,337 @@
     </row>
     <row r="2" s="5" customFormat="1" spans="1:21">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:21">
       <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1837,10 +1846,10 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1848,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1856,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1878,10 +1887,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1889,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1897,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1905,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1913,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1921,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1929,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1941,13 +1950,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -1955,10 +1964,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1966,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1974,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1982,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1990,7 +1999,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>订单号</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>商家编码</t>
+  </si>
+  <si>
+    <t>换算比例</t>
   </si>
   <si>
     <t>品名</t>
@@ -273,8 +276,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -310,6 +313,120 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -323,100 +440,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,35 +460,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -485,12 +488,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,169 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,45 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -744,26 +708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,8 +730,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,148 +799,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,10 +1297,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,16 +1309,16 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="82" customWidth="1"/>
-    <col min="13" max="14" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="9.875" customWidth="1"/>
-    <col min="22" max="23" width="12.25" customWidth="1"/>
-    <col min="24" max="24" width="14.625" customWidth="1"/>
+    <col min="5" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="82" customWidth="1"/>
+    <col min="14" max="15" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
+    <col min="22" max="22" width="9.875" customWidth="1"/>
+    <col min="23" max="24" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:25">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:26">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1346,22 +1349,22 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
@@ -1379,7 +1382,7 @@
       <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="10" t="s">
@@ -1390,6 +1393,9 @@
       </c>
       <c r="Y1" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1438,393 +1444,393 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:21">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:21">
       <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1846,10 +1852,10 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1865,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1887,10 +1893,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1898,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1906,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1914,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1922,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1930,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1938,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1964,10 +1970,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1975,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1983,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1991,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1999,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2007,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -38,7 +38,7 @@
     <t>商家编码</t>
   </si>
   <si>
-    <t>换算比例</t>
+    <t>商品编号</t>
   </si>
   <si>
     <t>品名</t>
@@ -274,10 +274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,7 +318,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,6 +363,75 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,85 +445,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,36 +460,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -488,19 +488,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,163 +644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,21 +698,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -727,20 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +747,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +785,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -802,10 +802,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,133 +814,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8430"/>
+    <workbookView windowWidth="19095" windowHeight="8430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="5" r:id="rId2"/>
-    <sheet name="订单类型对照表" sheetId="2" r:id="rId3"/>
-    <sheet name="订单来源对照表" sheetId="3" r:id="rId4"/>
-    <sheet name="支付方式对照表" sheetId="4" r:id="rId5"/>
+    <sheet name="订单来源对照表" sheetId="3" r:id="rId3"/>
+    <sheet name="支付方式对照表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>订单号</t>
   </si>
@@ -26,94 +25,76 @@
     <t>区域中心</t>
   </si>
   <si>
-    <t>供应商</t>
-  </si>
-  <si>
-    <t>订单类型</t>
-  </si>
-  <si>
-    <t>货号</t>
-  </si>
-  <si>
-    <t>商家编码</t>
-  </si>
-  <si>
     <t>商品编号</t>
   </si>
   <si>
+    <t>自有编码</t>
+  </si>
+  <si>
+    <t>换算比例</t>
+  </si>
+  <si>
+    <t>零售价</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>订单来源</t>
+  </si>
+  <si>
+    <t>税费</t>
+  </si>
+  <si>
+    <t>邮费</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>支付流水号</t>
+  </si>
+  <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>收件电话</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t>订购人电话</t>
+  </si>
+  <si>
+    <t>订购人姓名</t>
+  </si>
+  <si>
+    <t>订购人身份证</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>品名</t>
   </si>
   <si>
-    <t>零售价</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>订单来源</t>
-  </si>
-  <si>
-    <t>税费</t>
-  </si>
-  <si>
-    <t>邮费</t>
-  </si>
-  <si>
-    <t>支付金额</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-  </si>
-  <si>
-    <t>支付流水号</t>
-  </si>
-  <si>
-    <t>收件人</t>
-  </si>
-  <si>
-    <t>收件电话</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>区</t>
-  </si>
-  <si>
-    <t>详细地址</t>
-  </si>
-  <si>
-    <t>订购人电话</t>
-  </si>
-  <si>
-    <t>订购人姓名</t>
-  </si>
-  <si>
-    <t>订购人身份证</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>GX0180525112325897005</t>
   </si>
   <si>
     <t>中国供销海外购</t>
   </si>
   <si>
-    <t>天天仓</t>
-  </si>
-  <si>
-    <t>跨境</t>
-  </si>
-  <si>
-    <t>310518789100000001</t>
-  </si>
-  <si>
-    <t>GZ1001</t>
+    <t>HZKJ0439061165</t>
   </si>
   <si>
     <t>澳大利亚 Ego意高 儿童防晒霜 滚珠型 SPF50+ 50毫升</t>
@@ -155,18 +136,12 @@
     <t>GX0180525123424064007</t>
   </si>
   <si>
-    <t>310518789100000004</t>
-  </si>
-  <si>
     <t>2018052521001004760287089425</t>
   </si>
   <si>
     <t>GX0180525125340854008</t>
   </si>
   <si>
-    <t>310517622300001093</t>
-  </si>
-  <si>
     <t>微信</t>
   </si>
   <si>
@@ -194,43 +169,37 @@
     <t>GX0180525135048482009</t>
   </si>
   <si>
-    <t>GZ1005</t>
-  </si>
-  <si>
     <t>4200000138201805253076693547</t>
   </si>
   <si>
     <t>说明文档</t>
   </si>
   <si>
-    <t>1、建议条数≤500条，文件大小≤2M</t>
+    <t>1、建议条数≤300条，文件大小≤2M</t>
   </si>
   <si>
     <t>2、黄底为选填，其余为必填</t>
   </si>
   <si>
-    <t>3、如果订购人信息填写，请将订购人姓名，身份证，手机号全部填完整</t>
-  </si>
-  <si>
-    <t>4、区域中心，供应商，订单类型，订单来源，支付方式对应的参数请参考各个sheet，填写一定要准确</t>
-  </si>
-  <si>
-    <t>5、如果区域中心和供应商有新增或修改，请重新下载模板</t>
-  </si>
-  <si>
-    <t>6、订单如果多个商品，除了商品信息不一致其他信息请都保持一致</t>
-  </si>
-  <si>
-    <t>7、其他相关问题请联系技术；</t>
-  </si>
-  <si>
-    <t>类型ID</t>
-  </si>
-  <si>
-    <t>类型名称</t>
-  </si>
-  <si>
-    <t>一般贸易</t>
+    <t>3、（自有编码、换算比例）和商品编号2选1填写，如果都填写则以商品编号为准，如果填写自有编码则换算比例也必填</t>
+  </si>
+  <si>
+    <t>4、如果订购人信息填写，请将订购人姓名，身份证，手机号全部填完整</t>
+  </si>
+  <si>
+    <t>5、区域中心，订单来源，支付方式对应的参数请参考各个sheet，填写一定要准确</t>
+  </si>
+  <si>
+    <t>6、如果区域中心有新增或修改，请重新下载模板</t>
+  </si>
+  <si>
+    <t>7、订单如果多个商品，除了商品信息不一致其他信息请都保持一致</t>
+  </si>
+  <si>
+    <t>8、零售价如果填写则以填写的为准，如果没有填写则以系统内为准</t>
+  </si>
+  <si>
+    <t>9、其他相关问题请联系技术；</t>
   </si>
   <si>
     <t>来源ID</t>
@@ -274,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -311,14 +280,104 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,65 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -400,14 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,26 +415,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,14 +429,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -476,13 +445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +475,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -506,6 +499,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,42 +589,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,36 +613,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -645,30 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +662,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,8 +717,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,15 +734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,166 +763,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -966,16 +935,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,28 +1269,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="82" customWidth="1"/>
-    <col min="14" max="15" width="9.875" customWidth="1"/>
-    <col min="16" max="16" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="9.875" customWidth="1"/>
-    <col min="23" max="24" width="12.25" customWidth="1"/>
-    <col min="25" max="25" width="14.625" customWidth="1"/>
+    <col min="3" max="5" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="19" max="20" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:26">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1303,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1343,19 +1312,19 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -1364,7 +1333,7 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
@@ -1373,29 +1342,17 @@
       <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1407,24 +1364,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="5" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="51.5" customWidth="1"/>
-    <col min="15" max="15" width="31.5" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
-    <col min="22" max="23" width="12.25" customWidth="1"/>
-    <col min="24" max="24" width="14.625" customWidth="1"/>
+    <col min="3" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="13" max="13" width="31.5" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="20" max="21" width="12.25" customWidth="1"/>
+    <col min="22" max="22" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:24">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1432,405 +1389,369 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="10" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:19">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:21">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:19">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="P3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:19">
+      <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:19">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:21">
-      <c r="A3" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="N5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:19">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:21">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:21">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="5" t="s">
+    </row>
+    <row r="12" ht="16.5" spans="1:1">
+      <c r="A12" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:21">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1840,47 +1761,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B7"/>
@@ -1893,10 +1773,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1904,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1912,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1920,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1928,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1936,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1944,7 +1824,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B6"/>
@@ -1970,10 +1850,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1981,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1989,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1997,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2005,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2013,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>订单号</t>
   </si>
@@ -85,9 +85,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>品名</t>
-  </si>
-  <si>
     <t>GX0180525112325897005</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>HZKJ0439061165</t>
-  </si>
-  <si>
-    <t>澳大利亚 Ego意高 儿童防晒霜 滚珠型 SPF50+ 50毫升</t>
   </si>
   <si>
     <t>0.01</t>
@@ -243,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,14 +274,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,8 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,8 +326,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,91 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -457,6 +451,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,36 +613,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,126 +632,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,11 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,16 +685,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,6 +716,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -724,42 +735,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,10 +765,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,133 +777,133 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,24 +1358,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="3" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
-    <col min="13" max="13" width="31.5" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="20" max="21" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="19" max="20" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:22">
+    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:21">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1389,369 +1382,349 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:18">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:19">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:18">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="R3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:18">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:19">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:18">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8">
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:18">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="N6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:19">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:19">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:19">
-      <c r="A6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1746,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1784,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1792,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1800,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1808,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1816,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1824,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1823,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1861,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1869,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1877,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1885,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1893,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -190,7 +190,7 @@
     <t>7、订单如果多个商品，除了商品信息不一致其他信息请都保持一致</t>
   </si>
   <si>
-    <t>8、零售价如果填写则以填写的为准，如果没有填写则以系统内为准</t>
+    <t>8、零售价如果填写则以填写的为准，如果没有填写则以系统内为准，由于系统零售价有返佣，所以大客户订单请填写零售价</t>
   </si>
   <si>
     <t>9、其他相关问题请联系技术；</t>
@@ -238,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -276,6 +276,120 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -304,120 +418,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -451,6 +451,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,150 +571,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -620,12 +626,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,16 +660,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -685,21 +685,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -710,6 +695,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,17 +734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,148 +762,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resource/orderImportTpl.xlsx
+++ b/src/main/resource/orderImportTpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8430" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="8430" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>订单号</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>其他</t>
+  </si>
+  <si>
+    <t>月结</t>
   </si>
 </sst>
 </file>
@@ -273,6 +276,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -280,8 +306,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -311,50 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -363,25 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,36 +426,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -451,6 +454,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,180 +635,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +663,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,15 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -695,21 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,17 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,156 +765,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1281,71 +1287,71 @@
     <col min="21" max="21" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:22">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:22">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1360,7 +1366,7 @@
   <sheetPr/>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1374,311 +1380,311 @@
     <col min="21" max="21" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="14.25" spans="1:21">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:21">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:18">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:18">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:18">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:18">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:18">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="6" customFormat="1" spans="1:18">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:18">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="6" customFormat="1" spans="1:18">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:18">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:18">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1753,50 +1759,50 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1809,13 +1815,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -1869,6 +1875,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
